--- a/finmail/Daily Excel Report.xlsx
+++ b/finmail/Daily Excel Report.xlsx
@@ -79,10 +79,10 @@
     <t>Terex Corporation</t>
   </si>
   <si>
+    <t>Intuitive Surgical, Inc.</t>
+  </si>
+  <si>
     <t>Constellation Energy Corporation</t>
-  </si>
-  <si>
-    <t>Intuitive Surgical, Inc.</t>
   </si>
   <si>
     <t>Gold Futures</t>
@@ -561,31 +561,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>474.84</v>
+        <v>454.85</v>
       </c>
       <c r="C2">
-        <v>0.61</v>
+        <v>-0.52</v>
       </c>
       <c r="D2">
-        <v>2.73</v>
+        <v>0.49</v>
       </c>
       <c r="E2">
-        <v>5.76</v>
+        <v>5.06</v>
       </c>
       <c r="F2">
-        <v>8.69</v>
+        <v>2.02</v>
       </c>
       <c r="G2">
-        <v>9.609999999999999</v>
+        <v>7.84</v>
       </c>
       <c r="H2">
-        <v>26.05</v>
+        <v>20.75</v>
       </c>
       <c r="I2">
-        <v>26.85</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>109.68</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -593,31 +593,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>15003.22</v>
+        <v>14185.49</v>
       </c>
       <c r="C3">
-        <v>0.66</v>
+        <v>-0.84</v>
       </c>
       <c r="D3">
-        <v>3.23</v>
+        <v>-0.39</v>
       </c>
       <c r="E3">
-        <v>6.21</v>
+        <v>5.25</v>
       </c>
       <c r="F3">
-        <v>11.39</v>
+        <v>1.17</v>
       </c>
       <c r="G3">
-        <v>10.07</v>
+        <v>8.25</v>
       </c>
       <c r="H3">
-        <v>43.35</v>
+        <v>35.53</v>
       </c>
       <c r="I3">
-        <v>42.26</v>
+        <v>23.77</v>
       </c>
       <c r="J3">
-        <v>129.81</v>
+        <v>98.16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -625,31 +625,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>37557.92</v>
+        <v>36204.44</v>
       </c>
       <c r="C4">
-        <v>0.68</v>
+        <v>-0.11</v>
       </c>
       <c r="D4">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="E4">
-        <v>7.47</v>
+        <v>6.29</v>
       </c>
       <c r="F4">
-        <v>9.050000000000001</v>
+        <v>4.51</v>
       </c>
       <c r="G4">
-        <v>10.64</v>
+        <v>7.54</v>
       </c>
       <c r="H4">
-        <v>13.31</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I4">
-        <v>14.65</v>
+        <v>5.15</v>
       </c>
       <c r="J4">
-        <v>64.3</v>
+        <v>44.66</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -657,31 +657,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>12.53</v>
+        <v>13.08</v>
       </c>
       <c r="C5">
-        <v>-0.24</v>
+        <v>3.56</v>
       </c>
       <c r="D5">
-        <v>3.81</v>
+        <v>3.07</v>
       </c>
       <c r="E5">
-        <v>-9.199999999999999</v>
+        <v>-12.27</v>
       </c>
       <c r="F5">
-        <v>-17.24</v>
+        <v>-6.64</v>
       </c>
       <c r="G5">
-        <v>-2.94</v>
+        <v>-6.17</v>
       </c>
       <c r="H5">
-        <v>-42.18</v>
+        <v>-39.64</v>
       </c>
       <c r="I5">
-        <v>-44.11</v>
+        <v>-31.37</v>
       </c>
       <c r="J5">
-        <v>-55.85</v>
+        <v>-36.93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -689,31 +689,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>5.6</v>
+        <v>4.68</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="D6">
-        <v>17.4</v>
+        <v>7.09</v>
       </c>
       <c r="E6">
-        <v>29.63</v>
+        <v>0.21</v>
       </c>
       <c r="F6">
-        <v>16.18</v>
+        <v>-3.7</v>
       </c>
       <c r="G6">
-        <v>15.46</v>
+        <v>0.43</v>
       </c>
       <c r="H6">
-        <v>10.67</v>
+        <v>-7.51</v>
       </c>
       <c r="I6">
-        <v>12.9</v>
+        <v>-19.73</v>
       </c>
       <c r="J6">
-        <v>27.27</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -721,31 +721,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>122.24</v>
+        <v>118.36</v>
       </c>
       <c r="C7">
-        <v>1.76</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>-2.02</v>
+        <v>-2.42</v>
       </c>
       <c r="E7">
-        <v>0.75</v>
+        <v>-0.66</v>
       </c>
       <c r="F7">
-        <v>7.91</v>
+        <v>0.08</v>
       </c>
       <c r="G7">
-        <v>6.21</v>
+        <v>3.66</v>
       </c>
       <c r="H7">
-        <v>3.62</v>
+        <v>0.33</v>
       </c>
       <c r="I7">
-        <v>1.01</v>
+        <v>-1.45</v>
       </c>
       <c r="J7">
-        <v>119.74</v>
+        <v>108.12</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -753,31 +753,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>94.76000000000001</v>
+        <v>89.86</v>
       </c>
       <c r="C8">
-        <v>0.72</v>
+        <v>-3.06</v>
       </c>
       <c r="D8">
-        <v>1.64</v>
+        <v>-0.72</v>
       </c>
       <c r="E8">
-        <v>9.119999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="F8">
-        <v>3.48</v>
+        <v>1.73</v>
       </c>
       <c r="G8">
-        <v>27.88</v>
+        <v>26.85</v>
       </c>
       <c r="H8">
-        <v>51.96</v>
+        <v>44.1</v>
       </c>
       <c r="I8">
-        <v>55.52</v>
+        <v>34.68</v>
       </c>
       <c r="J8">
-        <v>403.51</v>
+        <v>312.96</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -785,31 +785,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>425.47</v>
+        <v>408.23</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>-1.48</v>
       </c>
       <c r="D9">
-        <v>1.12</v>
+        <v>-0.18</v>
       </c>
       <c r="E9">
-        <v>6.29</v>
+        <v>5.75</v>
       </c>
       <c r="F9">
-        <v>3.79</v>
+        <v>-0.65</v>
       </c>
       <c r="G9">
-        <v>12.94</v>
+        <v>10.24</v>
       </c>
       <c r="H9">
-        <v>23.1</v>
+        <v>18.12</v>
       </c>
       <c r="I9">
-        <v>25.44</v>
+        <v>14.07</v>
       </c>
       <c r="J9">
-        <v>139.42</v>
+        <v>109.35</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -817,31 +817,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>196.94</v>
+        <v>189.43</v>
       </c>
       <c r="C10">
-        <v>0.54</v>
+        <v>-0.95</v>
       </c>
       <c r="D10">
-        <v>1.15</v>
+        <v>-0.19</v>
       </c>
       <c r="E10">
-        <v>3.82</v>
+        <v>7.37</v>
       </c>
       <c r="F10">
-        <v>12.37</v>
+        <v>-0.01</v>
       </c>
       <c r="G10">
-        <v>5.6</v>
+        <v>6.81</v>
       </c>
       <c r="H10">
-        <v>52.42</v>
+        <v>46.61</v>
       </c>
       <c r="I10">
-        <v>49.62</v>
+        <v>28.87</v>
       </c>
       <c r="J10">
-        <v>423.36</v>
+        <v>346.77</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -849,31 +849,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>138.55</v>
+        <v>137.82</v>
       </c>
       <c r="C11">
-        <v>0.33</v>
+        <v>0.04</v>
       </c>
       <c r="D11">
-        <v>-1.27</v>
+        <v>0.65</v>
       </c>
       <c r="E11">
-        <v>3.77</v>
+        <v>6.5</v>
       </c>
       <c r="F11">
-        <v>15.19</v>
+        <v>13.59</v>
       </c>
       <c r="G11">
-        <v>10.77</v>
+        <v>9.49</v>
       </c>
       <c r="H11">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="I11">
-        <v>15.41</v>
+        <v>4.83</v>
       </c>
       <c r="J11">
-        <v>82.18000000000001</v>
+        <v>72.88</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -881,31 +881,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>59.16</v>
+        <v>51.92</v>
       </c>
       <c r="C12">
-        <v>3.19</v>
+        <v>0.78</v>
       </c>
       <c r="D12">
-        <v>15.77</v>
+        <v>4.19</v>
       </c>
       <c r="E12">
-        <v>15.14</v>
+        <v>3.65</v>
       </c>
       <c r="F12">
-        <v>1.81</v>
+        <v>-14.34</v>
       </c>
       <c r="G12">
-        <v>4.62</v>
+        <v>-7.02</v>
       </c>
       <c r="H12">
-        <v>40.12</v>
+        <v>22.97</v>
       </c>
       <c r="I12">
-        <v>40.46</v>
+        <v>14.11</v>
       </c>
       <c r="J12">
-        <v>134.86</v>
+        <v>83.72</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -913,28 +913,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>120.81</v>
+        <v>311.84</v>
       </c>
       <c r="C13">
-        <v>1.21</v>
+        <v>-1.07</v>
       </c>
       <c r="D13">
-        <v>5.52</v>
+        <v>-1</v>
       </c>
       <c r="E13">
-        <v>-0.72</v>
+        <v>11.96</v>
       </c>
       <c r="F13">
-        <v>9.949999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="G13">
-        <v>36.03</v>
+        <v>1.5</v>
       </c>
       <c r="H13">
-        <v>41.85</v>
+        <v>17.52</v>
       </c>
       <c r="I13">
-        <v>39.39</v>
+        <v>14.54</v>
+      </c>
+      <c r="J13">
+        <v>80.31999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -942,31 +945,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>335.72</v>
+        <v>118.92</v>
       </c>
       <c r="C14">
-        <v>2.22</v>
+        <v>-0.8</v>
       </c>
       <c r="D14">
-        <v>4.68</v>
+        <v>-4.94</v>
       </c>
       <c r="E14">
-        <v>9.970000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="F14">
-        <v>14.99</v>
+        <v>12.4</v>
       </c>
       <c r="G14">
-        <v>2.47</v>
+        <v>31.61</v>
       </c>
       <c r="H14">
-        <v>26.52</v>
+        <v>39.63</v>
       </c>
       <c r="I14">
-        <v>28.62</v>
+        <v>30.78</v>
       </c>
       <c r="J14">
-        <v>119.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -974,31 +977,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2038.4</v>
+        <v>2024.1</v>
       </c>
       <c r="C15">
-        <v>0.6</v>
+        <v>-2.26</v>
       </c>
       <c r="D15">
-        <v>3.06</v>
+        <v>0.61</v>
       </c>
       <c r="E15">
-        <v>2.87</v>
+        <v>1.64</v>
       </c>
       <c r="F15">
-        <v>4.77</v>
+        <v>5.08</v>
       </c>
       <c r="G15">
-        <v>6.57</v>
+        <v>4.19</v>
       </c>
       <c r="H15">
-        <v>12.02</v>
+        <v>11.23</v>
       </c>
       <c r="I15">
-        <v>14.02</v>
+        <v>12.71</v>
       </c>
       <c r="J15">
-        <v>61.32</v>
+        <v>63.09</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1006,31 +1009,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>24.04</v>
+        <v>24.56</v>
       </c>
       <c r="C16">
-        <v>0.88</v>
+        <v>-3.69</v>
       </c>
       <c r="D16">
-        <v>5.76</v>
+        <v>-0.45</v>
       </c>
       <c r="E16">
-        <v>0.97</v>
+        <v>5.86</v>
       </c>
       <c r="F16">
-        <v>1.95</v>
+        <v>4.24</v>
       </c>
       <c r="G16">
-        <v>7.13</v>
+        <v>4.78</v>
       </c>
       <c r="H16">
-        <v>0.75</v>
+        <v>2.93</v>
       </c>
       <c r="I16">
-        <v>4.39</v>
+        <v>6.6</v>
       </c>
       <c r="J16">
-        <v>62.98</v>
+        <v>69.15000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1038,31 +1041,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>963</v>
+        <v>921.1</v>
       </c>
       <c r="C17">
-        <v>1.21</v>
+        <v>-1.17</v>
       </c>
       <c r="D17">
-        <v>3.84</v>
+        <v>0.44</v>
       </c>
       <c r="E17">
-        <v>7.63</v>
+        <v>-1.65</v>
       </c>
       <c r="F17">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="G17">
-        <v>3.04</v>
+        <v>-10.81</v>
       </c>
       <c r="H17">
-        <v>-10.31</v>
+        <v>-14.21</v>
       </c>
       <c r="I17">
-        <v>-3.77</v>
+        <v>-11.4</v>
       </c>
       <c r="J17">
-        <v>21.19</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1070,31 +1073,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1229.8</v>
+        <v>968.3</v>
       </c>
       <c r="C18">
-        <v>2.9</v>
+        <v>-3.17</v>
       </c>
       <c r="D18">
-        <v>26.46</v>
+        <v>-8.69</v>
       </c>
       <c r="E18">
-        <v>16.4</v>
+        <v>-13.88</v>
       </c>
       <c r="F18">
-        <v>-3.29</v>
+        <v>-19.58</v>
       </c>
       <c r="G18">
-        <v>-2.53</v>
+        <v>-29.46</v>
       </c>
       <c r="H18">
-        <v>-31.27</v>
+        <v>-45.88</v>
       </c>
       <c r="I18">
-        <v>-25.13</v>
+        <v>-48.48</v>
       </c>
       <c r="J18">
-        <v>-0.08</v>
+        <v>-19.59</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1102,31 +1105,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>3.9</v>
+        <v>3.82</v>
       </c>
       <c r="C19">
-        <v>1.3</v>
+        <v>-2.3</v>
       </c>
       <c r="D19">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="E19">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>0.26</v>
       </c>
       <c r="G19">
+        <v>1.87</v>
+      </c>
+      <c r="H19">
         <v>0.26</v>
       </c>
-      <c r="H19">
-        <v>2.36</v>
-      </c>
       <c r="I19">
-        <v>3.17</v>
+        <v>-0.78</v>
       </c>
       <c r="J19">
-        <v>44.44</v>
+        <v>38.91</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1134,31 +1137,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>73.44</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="C20">
-        <v>1.34</v>
+        <v>-1.39</v>
       </c>
       <c r="D20">
-        <v>7.04</v>
+        <v>-2.43</v>
       </c>
       <c r="E20">
-        <v>-3.23</v>
+        <v>-9.279999999999999</v>
       </c>
       <c r="F20">
-        <v>-18.65</v>
+        <v>-15.75</v>
       </c>
       <c r="G20">
-        <v>5.65</v>
+        <v>0.7</v>
       </c>
       <c r="H20">
-        <v>-8.5</v>
+        <v>-9</v>
       </c>
       <c r="I20">
-        <v>-2.33</v>
+        <v>-8.68</v>
       </c>
       <c r="J20">
-        <v>60.07</v>
+        <v>37.16</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1166,31 +1169,31 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>2038.4</v>
+        <v>2024.1</v>
       </c>
       <c r="C21">
-        <v>0.6</v>
+        <v>-2.26</v>
       </c>
       <c r="D21">
-        <v>3.06</v>
+        <v>0.61</v>
       </c>
       <c r="E21">
-        <v>2.87</v>
+        <v>1.64</v>
       </c>
       <c r="F21">
-        <v>4.77</v>
+        <v>5.08</v>
       </c>
       <c r="G21">
-        <v>6.57</v>
+        <v>4.19</v>
       </c>
       <c r="H21">
-        <v>12.02</v>
+        <v>11.23</v>
       </c>
       <c r="I21">
-        <v>14.02</v>
+        <v>12.71</v>
       </c>
       <c r="J21">
-        <v>61.32</v>
+        <v>63.09</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1198,31 +1201,31 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>2.49</v>
+        <v>2.69</v>
       </c>
       <c r="C22">
-        <v>-0.4</v>
+        <v>-4.27</v>
       </c>
       <c r="D22">
-        <v>7.79</v>
+        <v>-3.58</v>
       </c>
       <c r="E22">
-        <v>-15.88</v>
+        <v>-23.58</v>
       </c>
       <c r="F22">
-        <v>-8.789999999999999</v>
+        <v>4.26</v>
       </c>
       <c r="G22">
-        <v>-4.6</v>
+        <v>15.45</v>
       </c>
       <c r="H22">
-        <v>-44.3</v>
+        <v>-39.82</v>
       </c>
       <c r="I22">
-        <v>-57.44</v>
+        <v>-57.17</v>
       </c>
       <c r="J22">
-        <v>-30.45</v>
+        <v>-39.69</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1233,7 +1236,7 @@
         <v>0.67</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D23">
         <v>0.02</v>
@@ -1242,19 +1245,19 @@
         <v>0.04</v>
       </c>
       <c r="F23">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G23">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H23">
         <v>-0.01</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="J23">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1262,31 +1265,31 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="C24">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
       <c r="D24">
         <v>0.01</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
+        <v>-0</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
-      <c r="G24">
-        <v>-0.01</v>
-      </c>
-      <c r="H24">
-        <v>0.01</v>
-      </c>
       <c r="I24">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="J24">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1297,19 +1300,19 @@
         <v>1.09</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D25">
+        <v>-0</v>
+      </c>
+      <c r="E25">
+        <v>0.03</v>
+      </c>
+      <c r="F25">
         <v>0.01</v>
       </c>
-      <c r="E25">
-        <v>0.01</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.02</v>
-      </c>
-      <c r="G25">
-        <v>-0</v>
       </c>
       <c r="H25">
         <v>0.02</v>
@@ -1329,28 +1332,28 @@
         <v>0.01</v>
       </c>
       <c r="C26">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
       <c r="D26">
         <v>0.02</v>
       </c>
       <c r="E26">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F26">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="H26">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="I26">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="J26">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1361,19 +1364,19 @@
         <v>0.62</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D27">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E27">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F27">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H27">
         <v>-0.02</v>
@@ -1382,7 +1385,7 @@
         <v>-0.02</v>
       </c>
       <c r="J27">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1390,31 +1393,31 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C28">
         <v>0.01</v>
       </c>
       <c r="D28">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F28">
-        <v>0.04</v>
+        <v>-0</v>
       </c>
       <c r="G28">
         <v>0.03</v>
       </c>
       <c r="H28">
-        <v>-0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="I28">
-        <v>-0.05</v>
+        <v>-0.09</v>
       </c>
       <c r="J28">
-        <v>-0.16</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1425,19 +1428,19 @@
         <v>1.27</v>
       </c>
       <c r="C29">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
       <c r="D29">
         <v>0.01</v>
       </c>
       <c r="E29">
+        <v>0.04</v>
+      </c>
+      <c r="F29">
+        <v>0.01</v>
+      </c>
+      <c r="G29">
         <v>0.02</v>
-      </c>
-      <c r="F29">
-        <v>0.02</v>
-      </c>
-      <c r="G29">
-        <v>-0.01</v>
       </c>
       <c r="H29">
         <v>0.05</v>
@@ -1446,7 +1449,7 @@
         <v>0.04</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1457,28 +1460,28 @@
         <v>0.1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D30">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E30">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.06</v>
+      </c>
+      <c r="G30">
         <v>0.04</v>
       </c>
-      <c r="F30">
-        <v>0.09</v>
-      </c>
-      <c r="G30">
-        <v>0.05</v>
-      </c>
       <c r="H30">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I30">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="J30">
-        <v>-0.11</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1489,19 +1492,19 @@
         <v>1.15</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D31">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E31">
+        <v>0.04</v>
+      </c>
+      <c r="F31">
         <v>0.02</v>
       </c>
-      <c r="F31">
-        <v>0.03</v>
-      </c>
       <c r="G31">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H31">
         <v>0.06</v>
@@ -1518,31 +1521,31 @@
         <v>39</v>
       </c>
       <c r="B32">
-        <v>5.24</v>
+        <v>5.22</v>
       </c>
       <c r="C32">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-0.19</v>
+        <v>-0.76</v>
       </c>
       <c r="E32">
-        <v>0.19</v>
+        <v>-0.57</v>
       </c>
       <c r="F32">
-        <v>-1.5</v>
+        <v>-1.14</v>
       </c>
       <c r="G32">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>22.54</v>
       </c>
       <c r="I32">
-        <v>25.96</v>
+        <v>23.99</v>
       </c>
       <c r="J32">
-        <v>123.93</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1550,31 +1553,31 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>3.93</v>
+        <v>4.24</v>
       </c>
       <c r="C33">
-        <v>-0.51</v>
+        <v>1.92</v>
       </c>
       <c r="D33">
-        <v>-7.09</v>
+        <v>-3.85</v>
       </c>
       <c r="E33">
-        <v>-11.69</v>
+        <v>-5.57</v>
       </c>
       <c r="F33">
-        <v>-12.86</v>
+        <v>-3.2</v>
       </c>
       <c r="G33">
-        <v>-2.96</v>
+        <v>8.16</v>
       </c>
       <c r="H33">
-        <v>-1.75</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>5.93</v>
+        <v>15.53</v>
       </c>
       <c r="J33">
-        <v>48.3</v>
+        <v>51.43</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1582,31 +1585,31 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="C34">
-        <v>-0.76</v>
+        <v>1.42</v>
       </c>
       <c r="D34">
-        <v>-6.89</v>
+        <v>-2.28</v>
       </c>
       <c r="E34">
-        <v>-11.71</v>
+        <v>-5.92</v>
       </c>
       <c r="F34">
-        <v>-9.890000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="G34">
-        <v>3.16</v>
+        <v>13.49</v>
       </c>
       <c r="H34">
-        <v>1.03</v>
+        <v>10.57</v>
       </c>
       <c r="I34">
-        <v>9.5</v>
+        <v>22.22</v>
       </c>
       <c r="J34">
-        <v>40.5</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1614,31 +1617,31 @@
         <v>42</v>
       </c>
       <c r="B35">
-        <v>4.03</v>
+        <v>4.44</v>
       </c>
       <c r="C35">
-        <v>-0.98</v>
+        <v>0.45</v>
       </c>
       <c r="D35">
-        <v>-6.28</v>
+        <v>-1.99</v>
       </c>
       <c r="E35">
-        <v>-12.39</v>
+        <v>-6.53</v>
       </c>
       <c r="F35">
-        <v>-8.41</v>
+        <v>1.37</v>
       </c>
       <c r="G35">
-        <v>4.13</v>
+        <v>12.69</v>
       </c>
       <c r="H35">
-        <v>1.51</v>
+        <v>11.84</v>
       </c>
       <c r="I35">
-        <v>11.33</v>
+        <v>24.72</v>
       </c>
       <c r="J35">
-        <v>33.89</v>
+        <v>39.62</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1654,20 +1657,20 @@
       <c r="D36">
         <v>0.46</v>
       </c>
+      <c r="E36">
+        <v>2.31</v>
+      </c>
       <c r="F36">
-        <v>6.02</v>
+        <v>4.17</v>
       </c>
       <c r="G36">
-        <v>-1.39</v>
+        <v>-1.85</v>
       </c>
       <c r="H36">
         <v>7.87</v>
       </c>
       <c r="I36">
         <v>6.02</v>
-      </c>
-      <c r="J36">
-        <v>-29.63</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1683,20 +1686,20 @@
       <c r="D37">
         <v>1.37</v>
       </c>
+      <c r="E37">
+        <v>3.2</v>
+      </c>
       <c r="F37">
         <v>8.220000000000001</v>
       </c>
       <c r="G37">
-        <v>-0.46</v>
+        <v>0.46</v>
       </c>
       <c r="H37">
         <v>5.02</v>
       </c>
       <c r="I37">
         <v>0.46</v>
-      </c>
-      <c r="J37">
-        <v>-20.09</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1745,13 +1748,13 @@
         <v>-0.25</v>
       </c>
       <c r="E39">
-        <v>11.84</v>
+        <v>12.34</v>
       </c>
       <c r="F39">
-        <v>22.92</v>
+        <v>23.43</v>
       </c>
       <c r="G39">
-        <v>14.61</v>
+        <v>14.36</v>
       </c>
       <c r="H39">
         <v>2.52</v>
@@ -1777,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>12.44</v>
+        <v>12.94</v>
       </c>
       <c r="F40">
-        <v>24.87</v>
+        <v>25.38</v>
       </c>
       <c r="G40">
-        <v>17.01</v>
+        <v>16.5</v>
       </c>
       <c r="H40">
         <v>3.05</v>
@@ -1809,13 +1812,13 @@
         <v>0.31</v>
       </c>
       <c r="E41">
-        <v>18.27</v>
+        <v>18.58</v>
       </c>
       <c r="F41">
-        <v>30.34</v>
+        <v>32.51</v>
       </c>
       <c r="G41">
-        <v>14.55</v>
+        <v>14.24</v>
       </c>
       <c r="H41">
         <v>5.57</v>
@@ -1841,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>19.29</v>
+        <v>19.61</v>
       </c>
       <c r="F42">
-        <v>25.72</v>
+        <v>29.26</v>
       </c>
       <c r="G42">
-        <v>6.11</v>
+        <v>6.43</v>
       </c>
       <c r="H42">
         <v>6.11</v>

--- a/finmail/Daily Excel Report.xlsx
+++ b/finmail/Daily Excel Report.xlsx
@@ -561,31 +561,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>454.85</v>
+        <v>508.56</v>
       </c>
       <c r="C2">
-        <v>-0.52</v>
+        <v>0.21</v>
       </c>
       <c r="D2">
-        <v>0.49</v>
+        <v>1.81</v>
       </c>
       <c r="E2">
-        <v>5.06</v>
+        <v>4.77</v>
       </c>
       <c r="F2">
-        <v>2.02</v>
+        <v>12.15</v>
       </c>
       <c r="G2">
-        <v>7.84</v>
+        <v>16.47</v>
       </c>
       <c r="H2">
-        <v>20.75</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>28.86</v>
       </c>
       <c r="J2">
-        <v>83.7</v>
+        <v>97.69</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -593,31 +593,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>14185.49</v>
+        <v>16025.07</v>
       </c>
       <c r="C3">
-        <v>-0.84</v>
+        <v>-0.1</v>
       </c>
       <c r="D3">
-        <v>-0.39</v>
+        <v>1.58</v>
       </c>
       <c r="E3">
-        <v>5.25</v>
+        <v>3.51</v>
       </c>
       <c r="F3">
-        <v>1.17</v>
+        <v>12.45</v>
       </c>
       <c r="G3">
-        <v>8.25</v>
+        <v>17.91</v>
       </c>
       <c r="H3">
-        <v>35.53</v>
+        <v>6.75</v>
       </c>
       <c r="I3">
-        <v>23.77</v>
+        <v>38.26</v>
       </c>
       <c r="J3">
-        <v>98.16</v>
+        <v>112.89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -625,31 +625,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>36204.44</v>
+        <v>39225.19</v>
       </c>
       <c r="C4">
-        <v>-0.11</v>
+        <v>0.4</v>
       </c>
       <c r="D4">
-        <v>2.46</v>
+        <v>1.55</v>
       </c>
       <c r="E4">
-        <v>6.29</v>
+        <v>3.75</v>
       </c>
       <c r="F4">
-        <v>4.51</v>
+        <v>10.84</v>
       </c>
       <c r="G4">
-        <v>7.54</v>
+        <v>14.2</v>
       </c>
       <c r="H4">
-        <v>9.220000000000001</v>
+        <v>4.07</v>
       </c>
       <c r="I4">
-        <v>5.15</v>
+        <v>18.31</v>
       </c>
       <c r="J4">
-        <v>44.66</v>
+        <v>50.68</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -657,31 +657,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>13.08</v>
+        <v>14.01</v>
       </c>
       <c r="C5">
-        <v>3.56</v>
+        <v>-3.65</v>
       </c>
       <c r="D5">
-        <v>3.07</v>
+        <v>-1.62</v>
       </c>
       <c r="E5">
-        <v>-12.27</v>
+        <v>6.62</v>
       </c>
       <c r="F5">
-        <v>-6.64</v>
+        <v>12.44</v>
       </c>
       <c r="G5">
-        <v>-6.17</v>
+        <v>-10.65</v>
       </c>
       <c r="H5">
-        <v>-39.64</v>
+        <v>12.53</v>
       </c>
       <c r="I5">
-        <v>-31.37</v>
+        <v>-33.73</v>
       </c>
       <c r="J5">
-        <v>-36.93</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -689,31 +689,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>4.68</v>
+        <v>5.64</v>
       </c>
       <c r="C6">
-        <v>-3.7</v>
+        <v>5.03</v>
       </c>
       <c r="D6">
-        <v>7.09</v>
+        <v>2.73</v>
       </c>
       <c r="E6">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="F6">
-        <v>-3.7</v>
+        <v>25.33</v>
       </c>
       <c r="G6">
-        <v>0.43</v>
+        <v>20.77</v>
       </c>
       <c r="H6">
-        <v>-7.51</v>
+        <v>2.17</v>
       </c>
       <c r="I6">
-        <v>-19.73</v>
+        <v>17.26</v>
       </c>
       <c r="J6">
-        <v>-9.130000000000001</v>
+        <v>-16.81</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -721,31 +721,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>118.36</v>
+        <v>143.06</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>-2.42</v>
+        <v>3.85</v>
       </c>
       <c r="E7">
-        <v>-0.66</v>
+        <v>6.45</v>
       </c>
       <c r="F7">
-        <v>0.08</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>3.66</v>
+        <v>23.65</v>
       </c>
       <c r="H7">
-        <v>0.33</v>
+        <v>11.52</v>
       </c>
       <c r="I7">
-        <v>-1.45</v>
+        <v>22.58</v>
       </c>
       <c r="J7">
-        <v>108.12</v>
+        <v>142.43</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -753,31 +753,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>89.86</v>
+        <v>111.76</v>
       </c>
       <c r="C8">
-        <v>-3.06</v>
+        <v>0.22</v>
       </c>
       <c r="D8">
-        <v>-0.72</v>
+        <v>-0.84</v>
       </c>
       <c r="E8">
-        <v>6.2</v>
+        <v>14.38</v>
       </c>
       <c r="F8">
-        <v>1.73</v>
+        <v>23.08</v>
       </c>
       <c r="G8">
-        <v>26.85</v>
+        <v>35.58</v>
       </c>
       <c r="H8">
-        <v>44.1</v>
+        <v>20.38</v>
       </c>
       <c r="I8">
-        <v>34.68</v>
+        <v>60.25</v>
       </c>
       <c r="J8">
-        <v>312.96</v>
+        <v>358.97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -785,31 +785,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>408.23</v>
+        <v>472.9</v>
       </c>
       <c r="C9">
-        <v>-1.48</v>
+        <v>0.28</v>
       </c>
       <c r="D9">
-        <v>-0.18</v>
+        <v>1.02</v>
       </c>
       <c r="E9">
-        <v>5.75</v>
+        <v>7.8</v>
       </c>
       <c r="F9">
-        <v>-0.65</v>
+        <v>14.82</v>
       </c>
       <c r="G9">
-        <v>10.24</v>
+        <v>17.73</v>
       </c>
       <c r="H9">
-        <v>18.12</v>
+        <v>11.05</v>
       </c>
       <c r="I9">
-        <v>14.07</v>
+        <v>33.82</v>
       </c>
       <c r="J9">
-        <v>109.35</v>
+        <v>117.69</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -817,31 +817,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>189.43</v>
+        <v>183.36</v>
       </c>
       <c r="C10">
-        <v>-0.95</v>
+        <v>-0.55</v>
       </c>
       <c r="D10">
-        <v>-0.19</v>
+        <v>0.58</v>
       </c>
       <c r="E10">
-        <v>7.37</v>
+        <v>-5.61</v>
       </c>
       <c r="F10">
-        <v>-0.01</v>
+        <v>-3.36</v>
       </c>
       <c r="G10">
-        <v>6.81</v>
+        <v>2.92</v>
       </c>
       <c r="H10">
-        <v>46.61</v>
+        <v>-4.64</v>
       </c>
       <c r="I10">
-        <v>28.87</v>
+        <v>23.38</v>
       </c>
       <c r="J10">
-        <v>346.77</v>
+        <v>340.45</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -849,31 +849,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>137.82</v>
+        <v>142.71</v>
       </c>
       <c r="C11">
-        <v>0.04</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="D11">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>6.5</v>
+        <v>3.52</v>
       </c>
       <c r="F11">
-        <v>13.59</v>
+        <v>4.62</v>
       </c>
       <c r="G11">
-        <v>9.49</v>
+        <v>19.58</v>
       </c>
       <c r="H11">
-        <v>13.5</v>
+        <v>4.31</v>
       </c>
       <c r="I11">
-        <v>4.83</v>
+        <v>29.69</v>
       </c>
       <c r="J11">
-        <v>72.88</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -881,31 +881,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>51.92</v>
+        <v>53.32</v>
       </c>
       <c r="C12">
-        <v>0.78</v>
+        <v>0.41</v>
       </c>
       <c r="D12">
-        <v>4.19</v>
+        <v>-3.6</v>
       </c>
       <c r="E12">
-        <v>3.65</v>
+        <v>-7.56</v>
       </c>
       <c r="F12">
-        <v>-14.34</v>
+        <v>6.77</v>
       </c>
       <c r="G12">
-        <v>-7.02</v>
+        <v>-4.92</v>
       </c>
       <c r="H12">
-        <v>22.97</v>
+        <v>-7.21</v>
       </c>
       <c r="I12">
-        <v>14.11</v>
+        <v>-6.31</v>
       </c>
       <c r="J12">
-        <v>83.72</v>
+        <v>59.88</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -913,31 +913,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>311.84</v>
+        <v>388.83</v>
       </c>
       <c r="C13">
-        <v>-1.07</v>
+        <v>-0.06</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>2.69</v>
       </c>
       <c r="E13">
-        <v>11.96</v>
+        <v>5.07</v>
       </c>
       <c r="F13">
-        <v>1.35</v>
+        <v>22.27</v>
       </c>
       <c r="G13">
-        <v>1.5</v>
+        <v>30.68</v>
       </c>
       <c r="H13">
-        <v>17.52</v>
+        <v>15.26</v>
       </c>
       <c r="I13">
-        <v>14.54</v>
+        <v>65.53</v>
       </c>
       <c r="J13">
-        <v>80.31999999999999</v>
+        <v>111.38</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -945,28 +945,28 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>118.92</v>
+        <v>131.68</v>
       </c>
       <c r="C14">
-        <v>-0.8</v>
+        <v>-1.28</v>
       </c>
       <c r="D14">
-        <v>-4.94</v>
+        <v>0.4</v>
       </c>
       <c r="E14">
-        <v>1.82</v>
+        <v>13.84</v>
       </c>
       <c r="F14">
-        <v>12.4</v>
+        <v>6.31</v>
       </c>
       <c r="G14">
-        <v>31.61</v>
+        <v>24.66</v>
       </c>
       <c r="H14">
-        <v>39.63</v>
+        <v>12.65</v>
       </c>
       <c r="I14">
-        <v>30.78</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -977,31 +977,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2024.1</v>
+        <v>2038</v>
       </c>
       <c r="C15">
-        <v>-2.26</v>
+        <v>0.91</v>
       </c>
       <c r="D15">
-        <v>0.61</v>
+        <v>1.32</v>
       </c>
       <c r="E15">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="F15">
-        <v>5.08</v>
+        <v>1.79</v>
       </c>
       <c r="G15">
-        <v>4.19</v>
+        <v>6.64</v>
       </c>
       <c r="H15">
-        <v>11.23</v>
+        <v>-1.18</v>
       </c>
       <c r="I15">
-        <v>12.71</v>
+        <v>12.1</v>
       </c>
       <c r="J15">
-        <v>63.09</v>
+        <v>53.33</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1009,31 +1009,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>24.56</v>
+        <v>22.69</v>
       </c>
       <c r="C16">
-        <v>-3.69</v>
+        <v>-0.31</v>
       </c>
       <c r="D16">
-        <v>-0.45</v>
+        <v>-3.2</v>
       </c>
       <c r="E16">
-        <v>5.86</v>
+        <v>-0.26</v>
       </c>
       <c r="F16">
-        <v>4.24</v>
+        <v>-6.74</v>
       </c>
       <c r="G16">
-        <v>4.78</v>
+        <v>-6.32</v>
       </c>
       <c r="H16">
-        <v>2.93</v>
+        <v>-4.86</v>
       </c>
       <c r="I16">
-        <v>6.6</v>
+        <v>6.53</v>
       </c>
       <c r="J16">
-        <v>69.15000000000001</v>
+        <v>42.61</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1041,31 +1041,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>921.1</v>
+        <v>906.8</v>
       </c>
       <c r="C17">
-        <v>-1.17</v>
+        <v>0.57</v>
       </c>
       <c r="D17">
-        <v>0.44</v>
+        <v>-0.09</v>
       </c>
       <c r="E17">
-        <v>-1.65</v>
+        <v>0.13</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>-2.61</v>
       </c>
       <c r="G17">
-        <v>-10.81</v>
+        <v>-3.97</v>
       </c>
       <c r="H17">
-        <v>-14.21</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="I17">
-        <v>-11.4</v>
+        <v>-3.49</v>
       </c>
       <c r="J17">
-        <v>14.79</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1073,31 +1073,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>968.3</v>
+        <v>983</v>
       </c>
       <c r="C18">
-        <v>-3.17</v>
+        <v>1.67</v>
       </c>
       <c r="D18">
-        <v>-8.69</v>
+        <v>3.62</v>
       </c>
       <c r="E18">
-        <v>-13.88</v>
+        <v>1.62</v>
       </c>
       <c r="F18">
-        <v>-19.58</v>
+        <v>-8.369999999999999</v>
       </c>
       <c r="G18">
-        <v>-29.46</v>
+        <v>-19.31</v>
       </c>
       <c r="H18">
-        <v>-45.88</v>
+        <v>-10.96</v>
       </c>
       <c r="I18">
-        <v>-48.48</v>
+        <v>-31.05</v>
       </c>
       <c r="J18">
-        <v>-19.59</v>
+        <v>-33.23</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1105,31 +1105,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>3.82</v>
+        <v>3.86</v>
       </c>
       <c r="C19">
-        <v>-2.3</v>
+        <v>-1.03</v>
       </c>
       <c r="D19">
-        <v>1.6</v>
+        <v>0.52</v>
       </c>
       <c r="E19">
-        <v>4.09</v>
+        <v>-0.52</v>
       </c>
       <c r="F19">
-        <v>0.26</v>
+        <v>1.58</v>
       </c>
       <c r="G19">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="H19">
-        <v>0.26</v>
+        <v>-0.52</v>
       </c>
       <c r="I19">
-        <v>-0.78</v>
+        <v>-5.16</v>
       </c>
       <c r="J19">
-        <v>38.91</v>
+        <v>30.41</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1137,31 +1137,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>73.04000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C20">
-        <v>-1.39</v>
+        <v>-1.79</v>
       </c>
       <c r="D20">
-        <v>-2.43</v>
+        <v>-2.51</v>
       </c>
       <c r="E20">
-        <v>-9.279999999999999</v>
+        <v>2.81</v>
       </c>
       <c r="F20">
-        <v>-15.75</v>
+        <v>2.2</v>
       </c>
       <c r="G20">
-        <v>0.7</v>
+        <v>-3.29</v>
       </c>
       <c r="H20">
-        <v>-9</v>
+        <v>7.75</v>
       </c>
       <c r="I20">
-        <v>-8.68</v>
+        <v>2.4</v>
       </c>
       <c r="J20">
-        <v>37.16</v>
+        <v>34.82</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1169,31 +1169,31 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>2024.1</v>
+        <v>2038</v>
       </c>
       <c r="C21">
-        <v>-2.26</v>
+        <v>0.91</v>
       </c>
       <c r="D21">
-        <v>0.61</v>
+        <v>1.32</v>
       </c>
       <c r="E21">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="F21">
-        <v>5.08</v>
+        <v>1.79</v>
       </c>
       <c r="G21">
-        <v>4.19</v>
+        <v>6.64</v>
       </c>
       <c r="H21">
-        <v>11.23</v>
+        <v>-1.18</v>
       </c>
       <c r="I21">
-        <v>12.71</v>
+        <v>12.1</v>
       </c>
       <c r="J21">
-        <v>63.09</v>
+        <v>53.33</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1201,31 +1201,31 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>2.69</v>
+        <v>1.62</v>
       </c>
       <c r="C22">
-        <v>-4.27</v>
+        <v>-6.36</v>
       </c>
       <c r="D22">
-        <v>-3.58</v>
+        <v>0.62</v>
       </c>
       <c r="E22">
-        <v>-23.58</v>
+        <v>-38.64</v>
       </c>
       <c r="F22">
-        <v>4.26</v>
+        <v>-43.36</v>
       </c>
       <c r="G22">
-        <v>15.45</v>
+        <v>-36.22</v>
       </c>
       <c r="H22">
-        <v>-39.82</v>
+        <v>-35.46</v>
       </c>
       <c r="I22">
-        <v>-57.17</v>
+        <v>-29.87</v>
       </c>
       <c r="J22">
-        <v>-39.69</v>
+        <v>-40.44</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1233,31 +1233,31 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>0.01</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>-0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>0.02</v>
       </c>
-      <c r="E23">
-        <v>0.04</v>
-      </c>
-      <c r="F23">
-        <v>0.03</v>
-      </c>
-      <c r="G23">
-        <v>0.01</v>
-      </c>
       <c r="H23">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="I23">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="J23">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1268,25 +1268,25 @@
         <v>0.74</v>
       </c>
       <c r="C24">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="D24">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="E24">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="F24">
         <v>0.01</v>
       </c>
       <c r="G24">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="I24">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>-0.02</v>
@@ -1297,31 +1297,31 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>-0</v>
       </c>
-      <c r="D25">
-        <v>-0</v>
-      </c>
-      <c r="E25">
-        <v>0.03</v>
-      </c>
       <c r="F25">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>-0.02</v>
+      </c>
+      <c r="I25">
         <v>0.02</v>
       </c>
-      <c r="H25">
-        <v>0.02</v>
-      </c>
-      <c r="I25">
-        <v>0.03</v>
-      </c>
       <c r="J25">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1332,28 +1332,28 @@
         <v>0.01</v>
       </c>
       <c r="C26">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="D26">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="E26">
-        <v>0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G26">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="H26">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="I26">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="J26">
-        <v>-0.23</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1364,28 +1364,28 @@
         <v>0.62</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>0.01</v>
       </c>
-      <c r="D27">
+      <c r="E27">
+        <v>0.01</v>
+      </c>
+      <c r="F27">
         <v>0.02</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>0.05</v>
-      </c>
-      <c r="F27">
-        <v>0.05</v>
-      </c>
-      <c r="G27">
-        <v>0.03</v>
       </c>
       <c r="H27">
         <v>-0.02</v>
       </c>
       <c r="I27">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="J27">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1396,28 +1396,28 @@
         <v>0.09</v>
       </c>
       <c r="C28">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E28">
-        <v>0.04</v>
+        <v>-0</v>
       </c>
       <c r="F28">
-        <v>-0</v>
+        <v>0.02</v>
       </c>
       <c r="G28">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H28">
-        <v>-0.07000000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="I28">
-        <v>-0.09</v>
+        <v>-0.02</v>
       </c>
       <c r="J28">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1428,28 +1428,28 @@
         <v>1.27</v>
       </c>
       <c r="C29">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0.01</v>
       </c>
       <c r="E29">
-        <v>0.04</v>
+        <v>-0</v>
       </c>
       <c r="F29">
         <v>0.01</v>
       </c>
       <c r="G29">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H29">
+        <v>-0</v>
+      </c>
+      <c r="I29">
         <v>0.05</v>
       </c>
-      <c r="I29">
-        <v>0.04</v>
-      </c>
       <c r="J29">
-        <v>-0</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1460,28 +1460,28 @@
         <v>0.1</v>
       </c>
       <c r="C30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0.01</v>
       </c>
       <c r="E30">
+        <v>0.02</v>
+      </c>
+      <c r="F30">
+        <v>0.02</v>
+      </c>
+      <c r="G30">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F30">
-        <v>0.06</v>
-      </c>
-      <c r="G30">
-        <v>0.04</v>
-      </c>
       <c r="H30">
+        <v>-0.02</v>
+      </c>
+      <c r="I30">
         <v>0.01</v>
       </c>
-      <c r="I30">
-        <v>-0.01</v>
-      </c>
       <c r="J30">
-        <v>-0.13</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1489,31 +1489,31 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="C31">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="D31">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="E31">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="F31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H31">
+        <v>-0.05</v>
+      </c>
+      <c r="I31">
         <v>0.06</v>
       </c>
-      <c r="I31">
-        <v>0.08</v>
-      </c>
       <c r="J31">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1521,31 +1521,31 @@
         <v>39</v>
       </c>
       <c r="B32">
-        <v>5.22</v>
+        <v>5.24</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="D32">
-        <v>-0.76</v>
+        <v>0.38</v>
       </c>
       <c r="E32">
-        <v>-0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F32">
-        <v>-1.14</v>
+        <v>-0.19</v>
       </c>
       <c r="G32">
-        <v>1.36</v>
+        <v>-1.5</v>
       </c>
       <c r="H32">
-        <v>22.54</v>
+        <v>1.16</v>
       </c>
       <c r="I32">
-        <v>23.99</v>
+        <v>11.73</v>
       </c>
       <c r="J32">
-        <v>120.25</v>
+        <v>119.25</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1553,31 +1553,31 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="C33">
-        <v>1.92</v>
+        <v>-0.46</v>
       </c>
       <c r="D33">
-        <v>-3.85</v>
+        <v>0.47</v>
       </c>
       <c r="E33">
-        <v>-5.57</v>
+        <v>5.64</v>
       </c>
       <c r="F33">
-        <v>-3.2</v>
+        <v>-4.01</v>
       </c>
       <c r="G33">
-        <v>8.16</v>
+        <v>-2.71</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>12.24</v>
       </c>
       <c r="I33">
-        <v>15.53</v>
+        <v>4.87</v>
       </c>
       <c r="J33">
-        <v>51.43</v>
+        <v>74.48999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1588,28 +1588,28 @@
         <v>4.29</v>
       </c>
       <c r="C34">
-        <v>1.42</v>
+        <v>-0.92</v>
       </c>
       <c r="D34">
-        <v>-2.28</v>
+        <v>-0.23</v>
       </c>
       <c r="E34">
-        <v>-5.92</v>
+        <v>2.63</v>
       </c>
       <c r="F34">
-        <v>0.47</v>
+        <v>-4.03</v>
       </c>
       <c r="G34">
-        <v>13.49</v>
+        <v>1.18</v>
       </c>
       <c r="H34">
+        <v>10.85</v>
+      </c>
+      <c r="I34">
         <v>10.57</v>
       </c>
-      <c r="I34">
-        <v>22.22</v>
-      </c>
       <c r="J34">
-        <v>46.92</v>
+        <v>61.89</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1617,31 +1617,31 @@
         <v>42</v>
       </c>
       <c r="B35">
-        <v>4.44</v>
+        <v>4.42</v>
       </c>
       <c r="C35">
-        <v>0.45</v>
+        <v>-0.9</v>
       </c>
       <c r="D35">
-        <v>-1.99</v>
+        <v>-0.67</v>
       </c>
       <c r="E35">
-        <v>-6.53</v>
+        <v>0.23</v>
       </c>
       <c r="F35">
-        <v>1.37</v>
+        <v>-3.91</v>
       </c>
       <c r="G35">
-        <v>12.69</v>
+        <v>3.03</v>
       </c>
       <c r="H35">
-        <v>11.84</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I35">
-        <v>24.72</v>
+        <v>13.92</v>
       </c>
       <c r="J35">
-        <v>39.62</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1649,28 +1649,28 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>2.16</v>
+        <v>2.37</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="E36">
-        <v>2.31</v>
+        <v>-5.91</v>
       </c>
       <c r="F36">
-        <v>4.17</v>
+        <v>-6.75</v>
       </c>
       <c r="G36">
-        <v>-1.85</v>
-      </c>
-      <c r="H36">
-        <v>7.87</v>
+        <v>-5.06</v>
       </c>
       <c r="I36">
-        <v>6.02</v>
+        <v>5.49</v>
+      </c>
+      <c r="J36">
+        <v>-23.21</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1678,28 +1678,28 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1.37</v>
+        <v>0.87</v>
       </c>
       <c r="E37">
-        <v>3.2</v>
+        <v>-0.43</v>
       </c>
       <c r="F37">
-        <v>8.220000000000001</v>
+        <v>-2.16</v>
       </c>
       <c r="G37">
-        <v>0.46</v>
-      </c>
-      <c r="H37">
-        <v>5.02</v>
+        <v>0.87</v>
       </c>
       <c r="I37">
-        <v>0.46</v>
+        <v>3.46</v>
+      </c>
+      <c r="J37">
+        <v>-17.32</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1707,7 +1707,7 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1719,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-2.5</v>
+        <v>7.14</v>
       </c>
       <c r="G38">
-        <v>-7.08</v>
+        <v>3.12</v>
       </c>
       <c r="H38">
-        <v>-6.67</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>-5.83</v>
+        <v>2.23</v>
       </c>
       <c r="J38">
-        <v>-20.42</v>
+        <v>-14.29</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1739,31 +1739,31 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>3.97</v>
+        <v>4.32</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>-0.25</v>
+        <v>2.08</v>
       </c>
       <c r="E39">
-        <v>12.34</v>
+        <v>-2.78</v>
       </c>
       <c r="F39">
-        <v>23.43</v>
+        <v>3.24</v>
       </c>
       <c r="G39">
-        <v>14.36</v>
+        <v>11.34</v>
       </c>
       <c r="H39">
-        <v>2.52</v>
+        <v>-9.49</v>
       </c>
       <c r="I39">
-        <v>-0.5</v>
+        <v>-1.62</v>
       </c>
       <c r="J39">
-        <v>-52.14</v>
+        <v>-58.8</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1771,31 +1771,31 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>3.94</v>
+        <v>4.22</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="E40">
-        <v>12.94</v>
+        <v>-4.74</v>
       </c>
       <c r="F40">
-        <v>25.38</v>
+        <v>5.45</v>
       </c>
       <c r="G40">
-        <v>16.5</v>
+        <v>13.27</v>
       </c>
       <c r="H40">
-        <v>3.05</v>
+        <v>-8.06</v>
       </c>
       <c r="I40">
-        <v>-0.25</v>
+        <v>-0.47</v>
       </c>
       <c r="J40">
-        <v>-51.52</v>
+        <v>-57.82</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1803,31 +1803,31 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3.23</v>
+        <v>3.61</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.31</v>
+        <v>1.66</v>
       </c>
       <c r="E41">
-        <v>18.58</v>
+        <v>-1.66</v>
       </c>
       <c r="F41">
-        <v>32.51</v>
+        <v>6.09</v>
       </c>
       <c r="G41">
-        <v>14.24</v>
+        <v>11.91</v>
       </c>
       <c r="H41">
-        <v>5.57</v>
+        <v>-12.19</v>
       </c>
       <c r="I41">
-        <v>0.62</v>
+        <v>-3.05</v>
       </c>
       <c r="J41">
-        <v>-40.25</v>
+        <v>-50.42</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1835,31 +1835,31 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>3.11</v>
+        <v>3.53</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="E42">
-        <v>19.61</v>
+        <v>-1.13</v>
       </c>
       <c r="F42">
-        <v>29.26</v>
+        <v>5.38</v>
       </c>
       <c r="G42">
-        <v>6.43</v>
+        <v>4.82</v>
       </c>
       <c r="H42">
-        <v>6.11</v>
+        <v>-12.18</v>
       </c>
       <c r="I42">
-        <v>1.93</v>
+        <v>-5.95</v>
       </c>
       <c r="J42">
-        <v>-36.33</v>
+        <v>-46.46</v>
       </c>
     </row>
   </sheetData>
